--- a/CSTimetableSpring2015.xlsx
+++ b/CSTimetableSpring2015.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qureshi\Documents\SI Labs\SI-Labs-TimeTable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="-15" windowWidth="5760" windowHeight="8145" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CS-1A" sheetId="5" r:id="rId1"/>
@@ -1221,21 +1226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1253,6 +1243,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1284,6 +1289,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1332,7 +1340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1367,7 +1375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1593,53 +1601,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="111"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="106"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -1721,7 +1729,7 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="113" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="92"/>
@@ -1729,23 +1737,23 @@
       <c r="D8" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="104"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="98"/>
       <c r="H8" s="102"/>
       <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="93"/>
       <c r="C9" s="95"/>
       <c r="D9" s="97"/>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="99"/>
       <c r="H9" s="103"/>
       <c r="I9" s="101"/>
@@ -1781,14 +1789,14 @@
       <c r="C11" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="105"/>
-      <c r="F11" s="104" t="s">
+      <c r="E11" s="111"/>
+      <c r="F11" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="104"/>
+      <c r="G11" s="110"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
     </row>
@@ -1813,6 +1821,8 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
@@ -1820,8 +1830,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1859,40 +1867,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2097,40 +2105,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -2219,15 +2227,15 @@
       <c r="C8" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="44"/>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="104"/>
+      <c r="H8" s="110"/>
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2333,40 +2341,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2460,10 +2468,10 @@
       <c r="D8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="104"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="17"/>
@@ -2496,10 +2504,10 @@
       <c r="B10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="15"/>
       <c r="F10" s="87"/>
       <c r="G10" s="46"/>
@@ -2571,40 +2579,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2696,10 +2704,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="104" t="s">
+      <c r="G8" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="104"/>
+      <c r="H8" s="110"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2736,10 +2744,10 @@
         <v>33</v>
       </c>
       <c r="F10" s="23"/>
-      <c r="G10" s="104" t="s">
+      <c r="G10" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="104"/>
+      <c r="H10" s="110"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2808,40 +2816,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2956,10 +2964,10 @@
       <c r="F9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="104"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3045,40 +3053,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -3288,40 +3296,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="111"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="112" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="109" t="s">
+      <c r="B4" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="111"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>

--- a/CSTimetableSpring2015.xlsx
+++ b/CSTimetableSpring2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qureshi\Documents\SI Labs\SI-Labs-TimeTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samiq\Documents\GitHub\SI-Labs-TimeTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CS-1A" sheetId="5" r:id="rId1"/>
@@ -1226,6 +1226,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1244,19 +1253,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,53 +1601,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="106"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -1729,7 +1729,7 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="104" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="92"/>
@@ -1737,23 +1737,23 @@
       <c r="D8" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="110"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="98"/>
       <c r="H8" s="102"/>
       <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
+      <c r="A9" s="105"/>
       <c r="B9" s="93"/>
       <c r="C9" s="95"/>
       <c r="D9" s="97"/>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="99"/>
       <c r="H9" s="103"/>
       <c r="I9" s="101"/>
@@ -1789,14 +1789,14 @@
       <c r="C11" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="111"/>
-      <c r="F11" s="110" t="s">
+      <c r="E11" s="113"/>
+      <c r="F11" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="110"/>
+      <c r="G11" s="106"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
     </row>
@@ -1821,15 +1821,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1843,8 +1843,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,40 +1867,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="107" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2081,7 +2081,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -2227,15 +2227,15 @@
       <c r="C8" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="110"/>
+      <c r="E8" s="106"/>
       <c r="F8" s="44"/>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="110"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2341,40 +2341,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2468,10 +2468,10 @@
       <c r="D8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="110"/>
+      <c r="F8" s="106"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="17"/>
@@ -2504,10 +2504,10 @@
       <c r="B10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="110"/>
+      <c r="D10" s="106"/>
       <c r="E10" s="15"/>
       <c r="F10" s="87"/>
       <c r="G10" s="46"/>
@@ -2579,40 +2579,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2704,10 +2704,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="110"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2744,10 +2744,10 @@
         <v>33</v>
       </c>
       <c r="F10" s="23"/>
-      <c r="G10" s="110" t="s">
+      <c r="G10" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="110"/>
+      <c r="H10" s="106"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2816,40 +2816,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2964,10 +2964,10 @@
       <c r="F9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="110"/>
+      <c r="H9" s="106"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3053,40 +3053,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -3296,40 +3296,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="106"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="109"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>

--- a/CSTimetableSpring2015.xlsx
+++ b/CSTimetableSpring2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="CS-1A" sheetId="5" r:id="rId1"/>
@@ -1226,15 +1226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1253,10 +1244,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1589,8 +1589,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,53 +1601,53 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="109"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="106"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -1729,7 +1729,7 @@
       <c r="I7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="113" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="92"/>
@@ -1737,23 +1737,23 @@
       <c r="D8" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="106"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="98"/>
       <c r="H8" s="102"/>
       <c r="I8" s="100"/>
     </row>
     <row r="9" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="93"/>
       <c r="C9" s="95"/>
       <c r="D9" s="97"/>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="111" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="114"/>
+      <c r="F9" s="112"/>
       <c r="G9" s="99"/>
       <c r="H9" s="103"/>
       <c r="I9" s="101"/>
@@ -1789,14 +1789,14 @@
       <c r="C11" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="106" t="s">
+      <c r="D11" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="106" t="s">
+      <c r="E11" s="111"/>
+      <c r="F11" s="110" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="106"/>
+      <c r="G11" s="110"/>
       <c r="H11" s="15"/>
       <c r="I11" s="17"/>
     </row>
@@ -1821,15 +1821,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1843,8 +1843,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,40 +1867,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2081,8 +2081,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,40 +2105,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
@@ -2227,15 +2227,15 @@
       <c r="C8" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="E8" s="106"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="44"/>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="106"/>
+      <c r="H8" s="110"/>
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,7 +2317,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C10" sqref="C10:D10"/>
     </sheetView>
   </sheetViews>
@@ -2341,40 +2341,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2468,10 +2468,10 @@
       <c r="D8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="106"/>
+      <c r="F8" s="110"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="17"/>
@@ -2504,10 +2504,10 @@
       <c r="B10" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="106"/>
+      <c r="D10" s="110"/>
       <c r="E10" s="15"/>
       <c r="F10" s="87"/>
       <c r="G10" s="46"/>
@@ -2555,7 +2555,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
@@ -2579,40 +2579,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2704,10 +2704,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="15"/>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="106"/>
+      <c r="H8" s="110"/>
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2744,10 +2744,10 @@
         <v>33</v>
       </c>
       <c r="F10" s="23"/>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="106"/>
+      <c r="H10" s="110"/>
       <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2792,7 +2792,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -2816,40 +2816,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -2964,10 +2964,10 @@
       <c r="F9" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="106"/>
+      <c r="H9" s="110"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3053,40 +3053,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -3272,7 +3272,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:G4"/>
     </sheetView>
   </sheetViews>
@@ -3296,40 +3296,40 @@
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="109"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
